--- a/biology/Zoologie/Gravelyzomus_chalakudicus/Gravelyzomus_chalakudicus.xlsx
+++ b/biology/Zoologie/Gravelyzomus_chalakudicus/Gravelyzomus_chalakudicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gravelyzomus chalakudicus, unique représentant du genre Gravelyzomus, est une espèce de schizomides de la famille des Hubbardiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Kerala en Inde[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Kerala en Inde,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 5,59 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 5,59 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Chalkudi.
-Ce genre est nommé en l'honneur de Frederic Henry Gravely[2].
+Ce genre est nommé en l'honneur de Frederic Henry Gravely.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bastawade 2002 : Two new species of schizomids from India with range extension for Schizomus tikaderi (Arachnida: Schizomida). Journal of the Bombay Natural History Society, vol. 99, no 1, p. 90-95.
 Kulkarni, 2012 : Description of a new genus of Indian short-tailed whip-scorpions (Schizomida: Hubbardiidae) with notes on the taxonomy of the Indian fauna. Taprobanica, vol. 4, no 2(2), p. 65-68.</t>
